--- a/configuracoes.xlsx
+++ b/configuracoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Downloads\CSI-main\CSI-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D03213-C04D-4389-8E6F-7ADA635C8BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485EAB6B-AFE1-4C6E-AA80-0D82B26CA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F63889-6F3E-4836-8D3D-B68F45AA06E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Configuração</t>
   </si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t>(10) 2x</t>
+  </si>
+  <si>
+    <t>(10)2x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +78,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,30 +141,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="1" builtinId="10"/>
+    <cellStyle name="Texto Explicativo" xfId="2" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C3436F-1A30-49D8-923F-7A9003166919}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,197 +558,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="17">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A1:A2"/>
@@ -676,5 +859,6 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/configuracoes.xlsx
+++ b/configuracoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Downloads\CSI-main\CSI-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485EAB6B-AFE1-4C6E-AA80-0D82B26CA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C06294-2281-40C0-94B9-F27B77502ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F63889-6F3E-4836-8D3D-B68F45AA06E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Configuração</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>Amplitude</t>
-  </si>
-  <si>
-    <t>Filtro Savitzky-Golay</t>
-  </si>
-  <si>
-    <t>Janela</t>
-  </si>
-  <si>
-    <t>Ordem</t>
   </si>
   <si>
     <t xml:space="preserve"> Média móvel (janela)</t>
@@ -67,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +77,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,47 +168,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C3436F-1A30-49D8-923F-7A9003166919}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,309 +550,275 @@
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="14">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="11">
-        <v>10</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>5</v>
-      </c>
-      <c r="D12" s="11">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="17">
-        <v>3</v>
-      </c>
-      <c r="G13" s="17">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="29">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="F1:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/configuracoes.xlsx
+++ b/configuracoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Downloads\CSI-main\CSI-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C06294-2281-40C0-94B9-F27B77502ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE01BE9-2F9A-4695-B9BE-6022CCE89B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F63889-6F3E-4836-8D3D-B68F45AA06E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Configuração</t>
   </si>
@@ -39,33 +39,17 @@
     <t xml:space="preserve"> Média móvel (janela)</t>
   </si>
   <si>
-    <t>Filtro Median (janela)</t>
-  </si>
-  <si>
     <t>0.6 / 3.67</t>
   </si>
   <si>
     <t>1/2.5</t>
-  </si>
-  <si>
-    <t>(10) 2x</t>
-  </si>
-  <si>
-    <t>(10)2x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,7 +67,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,107 +109,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="1" builtinId="10"/>
-    <cellStyle name="Texto Explicativo" xfId="2" builtinId="53"/>
+    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C3436F-1A30-49D8-923F-7A9003166919}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,273 +459,162 @@
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="14">
-        <v>15</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+  <mergeCells count="12">
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F1:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/configuracoes.xlsx
+++ b/configuracoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Downloads\CSI-main\CSI-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE01BE9-2F9A-4695-B9BE-6022CCE89B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4F102-3732-41D2-B258-4425915E51BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F63889-6F3E-4836-8D3D-B68F45AA06E5}"/>
   </bookViews>
@@ -120,14 +120,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,7 +447,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,26 +460,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -491,10 +491,10 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -506,10 +506,10 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -521,25 +521,25 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -551,10 +551,10 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -566,10 +566,10 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -581,10 +581,10 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -596,10 +596,10 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
